--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1934413.180933767</v>
+        <v>-1937270.052068433</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>175.680966266969</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>15.23808768238043</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>116.1627174721785</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>98.75028604507405</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="T4" t="n">
-        <v>25.85209315371972</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>46.37574511732583</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>284.106410323895</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>299.9154604304237</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>299.9154604304237</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>45.54818871964061</v>
+        <v>12.70889480163085</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>110.4767683580351</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>149.9128787522683</v>
       </c>
       <c r="T5" t="n">
-        <v>211.7413030857667</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>299.9154604304254</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>299.9154604304254</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>299.9154604304254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>145.1121339979644</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>103.2753503840895</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.99074626324743</v>
+        <v>13.99074626324762</v>
       </c>
       <c r="S6" t="n">
-        <v>145.9048709334796</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.5708071230249</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8500775939488</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.8825238068736</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.0991259813958</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>34.42503306859077</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>203.7398173018139</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>137.5731275925743</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>57.30746839561687</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>63.59441785694217</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.54727076435946</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.911085733512944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.26309598425066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>48.13676080754333</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701342</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>125.8152577453148</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3029,10 +3029,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,7 +3718,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
         <v>262.2383508445512</v>
@@ -3727,7 +3727,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4028,7 +4028,7 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.3906707271973</v>
+        <v>400.7871177554789</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271973</v>
+        <v>400.7871177554789</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271973</v>
+        <v>211.367332738994</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271973</v>
+        <v>211.367332738994</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271973</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644756</v>
@@ -4343,37 +4343,37 @@
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201471</v>
+        <v>578.2426392372657</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201471</v>
+        <v>578.2426392372657</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036623</v>
+        <v>400.7871177554789</v>
       </c>
       <c r="V2" t="n">
-        <v>359.7826784871775</v>
+        <v>400.7871177554789</v>
       </c>
       <c r="W2" t="n">
-        <v>344.3906707271973</v>
+        <v>400.7871177554789</v>
       </c>
       <c r="X2" t="n">
-        <v>344.3906707271973</v>
+        <v>400.7871177554789</v>
       </c>
       <c r="Y2" t="n">
-        <v>344.3906707271973</v>
+        <v>400.7871177554789</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>632.7662704105541</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="C3" t="n">
-        <v>458.313241129427</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4410,7 +4410,7 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
@@ -4419,40 +4419,40 @@
         <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>571.6362168389248</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>571.6362168389248</v>
       </c>
       <c r="U3" t="n">
-        <v>632.7662704105541</v>
+        <v>571.6362168389248</v>
       </c>
       <c r="V3" t="n">
-        <v>632.7662704105541</v>
+        <v>571.6362168389248</v>
       </c>
       <c r="W3" t="n">
-        <v>632.7662704105541</v>
+        <v>571.6362168389248</v>
       </c>
       <c r="X3" t="n">
-        <v>632.7662704105541</v>
+        <v>571.6362168389248</v>
       </c>
       <c r="Y3" t="n">
-        <v>632.7662704105541</v>
+        <v>471.8884531570318</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6086928360921</v>
+        <v>376.2975162731772</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818523</v>
+        <v>207.3613333452702</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818523</v>
+        <v>207.3613333452702</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818523</v>
+        <v>207.3613333452702</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>207.3613333452702</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
@@ -4495,43 +4495,43 @@
         <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>373.5399563830975</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242519</v>
+        <v>559.1902876777544</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>721.9284911143046</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.725497984628</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768594</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="S4" t="n">
-        <v>423.1417032603746</v>
+        <v>423.141703260375</v>
       </c>
       <c r="T4" t="n">
-        <v>397.0284778525769</v>
+        <v>423.141703260375</v>
       </c>
       <c r="U4" t="n">
-        <v>397.0284778525769</v>
+        <v>423.141703260375</v>
       </c>
       <c r="V4" t="n">
-        <v>397.0284778525769</v>
+        <v>423.141703260375</v>
       </c>
       <c r="W4" t="n">
-        <v>397.0284778525769</v>
+        <v>376.2975162731772</v>
       </c>
       <c r="X4" t="n">
-        <v>397.0284778525769</v>
+        <v>376.2975162731772</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.6086928360921</v>
+        <v>376.2975162731772</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.94700901761792</v>
+        <v>1048.234691466878</v>
       </c>
       <c r="C5" t="n">
-        <v>76.94700901761792</v>
+        <v>761.2585194225398</v>
       </c>
       <c r="D5" t="n">
-        <v>76.94700901761792</v>
+        <v>458.3136098968592</v>
       </c>
       <c r="E5" t="n">
-        <v>76.94700901761792</v>
+        <v>155.3687003711787</v>
       </c>
       <c r="F5" t="n">
-        <v>70.00150826841444</v>
+        <v>148.4231996219752</v>
       </c>
       <c r="G5" t="n">
-        <v>23.99323683443403</v>
+        <v>135.5859321455804</v>
       </c>
       <c r="H5" t="n">
-        <v>23.99323683443403</v>
+        <v>135.5859321455804</v>
       </c>
       <c r="I5" t="n">
-        <v>23.99323683443403</v>
+        <v>23.9932368344339</v>
       </c>
       <c r="J5" t="n">
-        <v>62.70545777823941</v>
+        <v>62.70545777823918</v>
       </c>
       <c r="K5" t="n">
-        <v>171.4635601109408</v>
+        <v>171.4635601109397</v>
       </c>
       <c r="L5" t="n">
-        <v>343.2893649618558</v>
+        <v>343.2893649618537</v>
       </c>
       <c r="M5" t="n">
-        <v>566.1481175907758</v>
+        <v>566.1481175907728</v>
       </c>
       <c r="N5" t="n">
-        <v>797.2267662077171</v>
+        <v>797.2267662077134</v>
       </c>
       <c r="O5" t="n">
-        <v>1002.092520230231</v>
+        <v>1002.092520230226</v>
       </c>
       <c r="P5" t="n">
-        <v>1142.439700692758</v>
+        <v>1142.439700692752</v>
       </c>
       <c r="Q5" t="n">
-        <v>1199.661841721702</v>
+        <v>1199.661841721695</v>
       </c>
       <c r="R5" t="n">
-        <v>1199.661841721702</v>
+        <v>1199.661841721695</v>
       </c>
       <c r="S5" t="n">
-        <v>1199.661841721702</v>
+        <v>1048.234691466878</v>
       </c>
       <c r="T5" t="n">
-        <v>985.7817375946646</v>
+        <v>1048.234691466878</v>
       </c>
       <c r="U5" t="n">
-        <v>985.7817375946646</v>
+        <v>1048.234691466878</v>
       </c>
       <c r="V5" t="n">
-        <v>985.7817375946646</v>
+        <v>1048.234691466878</v>
       </c>
       <c r="W5" t="n">
-        <v>682.8368280689824</v>
+        <v>1048.234691466878</v>
       </c>
       <c r="X5" t="n">
-        <v>379.8919185433002</v>
+        <v>1048.234691466878</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.94700901761792</v>
+        <v>1048.234691466878</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170.571149963691</v>
+        <v>287.549227581394</v>
       </c>
       <c r="C6" t="n">
-        <v>170.571149963691</v>
+        <v>287.549227581394</v>
       </c>
       <c r="D6" t="n">
-        <v>23.99323683443403</v>
+        <v>287.549227581394</v>
       </c>
       <c r="E6" t="n">
-        <v>23.99323683443403</v>
+        <v>128.3117725759384</v>
       </c>
       <c r="F6" t="n">
-        <v>23.99323683443403</v>
+        <v>128.3117725759384</v>
       </c>
       <c r="G6" t="n">
-        <v>23.99323683443403</v>
+        <v>23.9932368344339</v>
       </c>
       <c r="H6" t="n">
-        <v>23.99323683443403</v>
+        <v>23.9932368344339</v>
       </c>
       <c r="I6" t="n">
-        <v>23.99323683443403</v>
+        <v>23.9932368344339</v>
       </c>
       <c r="J6" t="n">
-        <v>28.23212346630866</v>
+        <v>28.23212346630824</v>
       </c>
       <c r="K6" t="n">
-        <v>115.7590630965591</v>
+        <v>251.5223153098894</v>
       </c>
       <c r="L6" t="n">
-        <v>412.6753689226803</v>
+        <v>412.6753689226769</v>
       </c>
       <c r="M6" t="n">
-        <v>620.0902495625921</v>
+        <v>620.090249562588</v>
       </c>
       <c r="N6" t="n">
-        <v>847.4034298265503</v>
+        <v>847.4034298265453</v>
       </c>
       <c r="O6" t="n">
-        <v>1033.130785334934</v>
+        <v>1033.130785334929</v>
       </c>
       <c r="P6" t="n">
-        <v>1162.860295900033</v>
+        <v>1162.860295900027</v>
       </c>
       <c r="Q6" t="n">
-        <v>1199.661841721702</v>
+        <v>1199.661841721695</v>
       </c>
       <c r="R6" t="n">
-        <v>1185.529774789128</v>
+        <v>1185.529774789122</v>
       </c>
       <c r="S6" t="n">
-        <v>1038.151117280563</v>
+        <v>1185.529774789122</v>
       </c>
       <c r="T6" t="n">
-        <v>841.6149484694268</v>
+        <v>1185.529774789122</v>
       </c>
       <c r="U6" t="n">
-        <v>613.4835569603877</v>
+        <v>957.3983832800824</v>
       </c>
       <c r="V6" t="n">
-        <v>378.3314487286449</v>
+        <v>957.3983832800824</v>
       </c>
       <c r="W6" t="n">
-        <v>378.3314487286449</v>
+        <v>703.1610265518807</v>
       </c>
       <c r="X6" t="n">
-        <v>378.3314487286449</v>
+        <v>495.3095263463479</v>
       </c>
       <c r="Y6" t="n">
-        <v>170.571149963691</v>
+        <v>287.549227581394</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>324.2998750463582</v>
+        <v>498.9436992076905</v>
       </c>
       <c r="C7" t="n">
-        <v>324.2998750463582</v>
+        <v>330.0075162797837</v>
       </c>
       <c r="D7" t="n">
-        <v>324.2998750463582</v>
+        <v>330.0075162797837</v>
       </c>
       <c r="E7" t="n">
-        <v>324.2998750463582</v>
+        <v>182.0944226973905</v>
       </c>
       <c r="F7" t="n">
-        <v>177.4099275484479</v>
+        <v>35.20447519948016</v>
       </c>
       <c r="G7" t="n">
-        <v>177.4099275484479</v>
+        <v>35.20447519948016</v>
       </c>
       <c r="H7" t="n">
-        <v>23.99323683443403</v>
+        <v>35.20447519948016</v>
       </c>
       <c r="I7" t="n">
-        <v>23.99323683443403</v>
+        <v>35.20447519948016</v>
       </c>
       <c r="J7" t="n">
-        <v>23.99323683443403</v>
+        <v>23.9932368344339</v>
       </c>
       <c r="K7" t="n">
-        <v>135.7731927788549</v>
+        <v>135.7731927788545</v>
       </c>
       <c r="L7" t="n">
-        <v>334.3394864988013</v>
+        <v>334.3394864988006</v>
       </c>
       <c r="M7" t="n">
-        <v>554.0889252722293</v>
+        <v>554.0889252722282</v>
       </c>
       <c r="N7" t="n">
-        <v>774.0478299776245</v>
+        <v>774.047829977623</v>
       </c>
       <c r="O7" t="n">
-        <v>961.1991843389396</v>
+        <v>961.1991843389378</v>
       </c>
       <c r="P7" t="n">
-        <v>1097.818817161701</v>
+        <v>1097.818817161699</v>
       </c>
       <c r="Q7" t="n">
-        <v>1108.972089218908</v>
+        <v>1108.972089218905</v>
       </c>
       <c r="R7" t="n">
-        <v>1074.199328543563</v>
+        <v>1108.972089218905</v>
       </c>
       <c r="S7" t="n">
-        <v>868.4015332892058</v>
+        <v>1108.972089218905</v>
       </c>
       <c r="T7" t="n">
-        <v>868.4015332892058</v>
+        <v>970.0093340748908</v>
       </c>
       <c r="U7" t="n">
-        <v>868.4015332892058</v>
+        <v>970.0093340748908</v>
       </c>
       <c r="V7" t="n">
-        <v>613.7170450833189</v>
+        <v>970.0093340748908</v>
       </c>
       <c r="W7" t="n">
-        <v>324.2998750463582</v>
+        <v>680.5921640379303</v>
       </c>
       <c r="X7" t="n">
-        <v>324.2998750463582</v>
+        <v>680.5921640379303</v>
       </c>
       <c r="Y7" t="n">
-        <v>324.2998750463582</v>
+        <v>680.5921640379303</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>797.0848490996759</v>
+        <v>1240.759433410664</v>
       </c>
       <c r="C8" t="n">
-        <v>428.1223321592641</v>
+        <v>871.7969164702527</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>513.5312178635022</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>127.742965265258</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>120.7974645160545</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>109.1331182807474</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2498.102542686072</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2244.521481950252</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1913.458594606682</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.689939336567</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1187.224181075488</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y8" t="n">
-        <v>797.0848490996759</v>
+        <v>1627.359273474786</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.9551031446987</v>
+        <v>356.2574142430481</v>
       </c>
       <c r="C10" t="n">
-        <v>223.9551031446987</v>
+        <v>356.2574142430481</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>206.1407748307123</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>58.22768124831921</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>58.22768124831921</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>58.22768124831921</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>58.22768124831921</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232067</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W10" t="n">
-        <v>672.7372331862462</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="X10" t="n">
-        <v>444.7476822882288</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.9551031446987</v>
+        <v>537.9058790732878</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,7 +5127,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>456.5257005456925</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>309.6357530477821</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>142.4396537626621</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5969,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6014,22 +6014,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
         <v>484.8112968429803</v>
@@ -6142,16 +6142,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.852671620012</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,7 +6257,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6266,10 +6266,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,31 +6364,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6482,19 +6482,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>444.7013164925216</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6853,13 +6853,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6883,19 +6883,19 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,10 +7090,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380726</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,28 +7327,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797186</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438179</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438179</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484672</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777628</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.6500654619733</v>
+        <v>52.65006546197364</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.148669183356532</v>
+        <v>139.2832673786406</v>
       </c>
       <c r="L6" t="n">
-        <v>137.134598195286</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.3273467878356</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
-        <v>132.2490581595882</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>75.48829429806136</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>375.3355723258364</v>
       </c>
     </row>
     <row r="3">
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.5688841976866</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856354</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>92.15795203868056</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.9259388694759281</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>39.70888054695402</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1324422.047761518</v>
+        <v>1324422.047761519</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716095</v>
+        <v>84626.07044716086</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,13 +26323,13 @@
         <v>100893.3249612507</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
@@ -26338,7 +26338,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>124409.191017052</v>
+        <v>124409.1910170499</v>
       </c>
       <c r="D3" t="n">
-        <v>353194.3280459874</v>
+        <v>353194.3280459892</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245458</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>28925.5569022363</v>
+        <v>28925.55690223583</v>
       </c>
       <c r="L3" t="n">
-        <v>105648.069938866</v>
+        <v>105648.0699388663</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195261.4364935757</v>
+        <v>195261.4364935755</v>
       </c>
       <c r="C4" t="n">
-        <v>244130.5972050403</v>
+        <v>244130.5972050408</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493624</v>
+        <v>21597.66737493627</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493627</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493625</v>
+        <v>21597.66737493629</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493627</v>
+        <v>21597.66737493628</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493633</v>
+        <v>21597.66737493626</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>65928.22056882482</v>
+        <v>65928.22056882468</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-758978.0689788737</v>
+        <v>-759338.1519945913</v>
       </c>
       <c r="C6" t="n">
-        <v>-331837.7875578817</v>
+        <v>-331837.78755788</v>
       </c>
       <c r="D6" t="n">
-        <v>-488657.1099507349</v>
+        <v>-488657.1099507366</v>
       </c>
       <c r="E6" t="n">
-        <v>-521321.454599045</v>
+        <v>-521356.1925244806</v>
       </c>
       <c r="F6" t="n">
-        <v>-13836.01297449908</v>
+        <v>-13870.75089993479</v>
       </c>
       <c r="G6" t="n">
-        <v>-13836.01297449914</v>
+        <v>-13870.75089993479</v>
       </c>
       <c r="H6" t="n">
-        <v>-13836.0129744991</v>
+        <v>-13870.75089993484</v>
       </c>
       <c r="I6" t="n">
-        <v>-13836.01297449911</v>
+        <v>-13870.75089993481</v>
       </c>
       <c r="J6" t="n">
-        <v>-62900.95770304371</v>
+        <v>-62935.69562847945</v>
       </c>
       <c r="K6" t="n">
-        <v>-42761.56987673542</v>
+        <v>-42796.30780217063</v>
       </c>
       <c r="L6" t="n">
-        <v>-127779.6319346821</v>
+        <v>-127779.6319346825</v>
       </c>
       <c r="M6" t="n">
-        <v>-154738.8557247428</v>
+        <v>-154738.8557247429</v>
       </c>
       <c r="N6" t="n">
-        <v>-22131.56199581616</v>
+        <v>-22131.56199581617</v>
       </c>
       <c r="O6" t="n">
         <v>-22131.56199581617</v>
       </c>
       <c r="P6" t="n">
-        <v>-22131.56199581618</v>
+        <v>-22131.56199581616</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>645.2183749841721</v>
+        <v>645.2183749841707</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>299.9154604304254</v>
+        <v>299.9154604304237</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>96.74843407126752</v>
+        <v>96.74843407126593</v>
       </c>
       <c r="D3" t="n">
-        <v>288.846517133367</v>
+        <v>288.8465171333685</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3898732641055</v>
+        <v>112.3898732641037</v>
       </c>
       <c r="D4" t="n">
-        <v>340.6693716696134</v>
+        <v>340.6693716696151</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3898732641055</v>
+        <v>112.3898732641037</v>
       </c>
       <c r="L4" t="n">
-        <v>340.6693716696134</v>
+        <v>340.6693716696151</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3898732641055</v>
+        <v>112.3898732641037</v>
       </c>
       <c r="L4" t="n">
-        <v>340.6693716696134</v>
+        <v>340.6693716696151</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>249.6813119126736</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>334.0028810350326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>10.90236633021721</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>109.7010509379124</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>106.9324097322303</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917628</v>
+        <v>19.25466862917617</v>
       </c>
       <c r="T4" t="n">
-        <v>197.8675803363804</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>240.1472532192652</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>81.16648144711252</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>54.76758119025925</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>82.01490964183807</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>367.1607060819902</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>312.9106104260921</v>
+        <v>312.9106104260922</v>
       </c>
       <c r="I5" t="n">
-        <v>110.4767683580349</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>149.9128787522682</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.7413030857667</v>
       </c>
       <c r="U5" t="n">
         <v>251.1381454907562</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>49.3255082869876</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>69.81564024804362</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>86.32247822562817</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>2.332931566674347</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9556889604145</v>
+        <v>32.68033857632501</v>
       </c>
       <c r="H6" t="n">
-        <v>98.83194554107055</v>
+        <v>98.83194554107058</v>
       </c>
       <c r="I6" t="n">
-        <v>41.61395130777591</v>
+        <v>41.61395130777601</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.9048709334797</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.5708071230249</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.8274708134053</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.8825238068737</v>
       </c>
       <c r="I7" t="n">
-        <v>120.4605997723789</v>
+        <v>120.460599772379</v>
       </c>
       <c r="J7" t="n">
-        <v>11.09912598139563</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>90.5527831828129</v>
+        <v>124.9778162514038</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>203.739817301814</v>
       </c>
       <c r="T7" t="n">
-        <v>222.9742347357805</v>
+        <v>85.40110714320625</v>
       </c>
       <c r="U7" t="n">
         <v>286.2555652540334</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>243.7110841667885</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27904,13 +27904,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>143.0637671232916</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>124.0682022538529</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>97.88550947038763</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.000901204463675e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.999940953586095e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.66814863979091e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29749,10 +29749,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="38">
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.593842713504207</v>
+        <v>2.593842713504202</v>
       </c>
       <c r="H5" t="n">
-        <v>26.56419168967497</v>
+        <v>26.56419168967492</v>
       </c>
       <c r="I5" t="n">
-        <v>99.99912121237105</v>
+        <v>99.99912121237084</v>
       </c>
       <c r="J5" t="n">
-        <v>220.1491580052779</v>
+        <v>220.1491580052775</v>
       </c>
       <c r="K5" t="n">
-        <v>329.9465200679111</v>
+        <v>329.9465200679104</v>
       </c>
       <c r="L5" t="n">
-        <v>409.3278340113156</v>
+        <v>409.3278340113147</v>
       </c>
       <c r="M5" t="n">
-        <v>455.456084367596</v>
+        <v>455.4560843675951</v>
       </c>
       <c r="N5" t="n">
-        <v>462.8258399773399</v>
+        <v>462.8258399773389</v>
       </c>
       <c r="O5" t="n">
-        <v>437.0333164949324</v>
+        <v>437.0333164949315</v>
       </c>
       <c r="P5" t="n">
-        <v>372.9978245052972</v>
+        <v>372.9978245052964</v>
       </c>
       <c r="Q5" t="n">
-        <v>280.1058323279277</v>
+        <v>280.1058323279271</v>
       </c>
       <c r="R5" t="n">
-        <v>162.9354723521588</v>
+        <v>162.9354723521585</v>
       </c>
       <c r="S5" t="n">
-        <v>59.10719083397719</v>
+        <v>59.10719083397706</v>
       </c>
       <c r="T5" t="n">
-        <v>11.35454647836467</v>
+        <v>11.35454647836465</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2075074170803366</v>
+        <v>0.2075074170803361</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.387828202796144</v>
+        <v>1.387828202796141</v>
       </c>
       <c r="H6" t="n">
-        <v>13.40349869542592</v>
+        <v>13.40349869542589</v>
       </c>
       <c r="I6" t="n">
-        <v>47.78268154363916</v>
+        <v>47.78268154363906</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1193303352269</v>
+        <v>131.1193303352266</v>
       </c>
       <c r="K6" t="n">
-        <v>224.1038199225686</v>
+        <v>224.1038199225681</v>
       </c>
       <c r="L6" t="n">
-        <v>301.3352420150136</v>
+        <v>301.335242015013</v>
       </c>
       <c r="M6" t="n">
-        <v>351.6440143663738</v>
+        <v>351.644014366373</v>
       </c>
       <c r="N6" t="n">
-        <v>360.9509850772304</v>
+        <v>360.9509850772296</v>
       </c>
       <c r="O6" t="n">
-        <v>330.1996338468527</v>
+        <v>330.199633846852</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0143170760461</v>
+        <v>265.0143170760455</v>
       </c>
       <c r="Q6" t="n">
-        <v>177.1550526937674</v>
+        <v>177.1550526937671</v>
       </c>
       <c r="R6" t="n">
-        <v>86.1670878893957</v>
+        <v>86.16708788939552</v>
       </c>
       <c r="S6" t="n">
-        <v>25.77830017035818</v>
+        <v>25.77830017035813</v>
       </c>
       <c r="T6" t="n">
-        <v>5.593921571796735</v>
+        <v>5.593921571796724</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09130448702606213</v>
+        <v>0.09130448702606193</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.163508545053425</v>
+        <v>1.163508545053423</v>
       </c>
       <c r="H7" t="n">
-        <v>10.34464870056591</v>
+        <v>10.34464870056589</v>
       </c>
       <c r="I7" t="n">
-        <v>34.98987515487937</v>
+        <v>34.9898751548793</v>
       </c>
       <c r="J7" t="n">
-        <v>82.26005413527714</v>
+        <v>82.26005413527697</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1785382343888</v>
+        <v>135.1785382343885</v>
       </c>
       <c r="L7" t="n">
-        <v>172.9819885982156</v>
+        <v>172.9819885982152</v>
       </c>
       <c r="M7" t="n">
-        <v>182.3852531123291</v>
+        <v>182.3852531123287</v>
       </c>
       <c r="N7" t="n">
-        <v>178.0485394444029</v>
+        <v>178.0485394444025</v>
       </c>
       <c r="O7" t="n">
-        <v>164.4566441680969</v>
+        <v>164.4566441680965</v>
       </c>
       <c r="P7" t="n">
-        <v>140.7210698490069</v>
+        <v>140.7210698490066</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.42797462260998</v>
+        <v>97.42797462260978</v>
       </c>
       <c r="R7" t="n">
-        <v>52.3155751257658</v>
+        <v>52.3155751257657</v>
       </c>
       <c r="S7" t="n">
-        <v>20.27678073515832</v>
+        <v>20.27678073515828</v>
       </c>
       <c r="T7" t="n">
-        <v>4.971354692500996</v>
+        <v>4.971354692500986</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06346410245745962</v>
+        <v>0.06346410245745948</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,22 +32786,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,10 +32813,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,10 +33287,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33497,25 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,10 +33524,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420754</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760394</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742437</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420754</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760395</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742437</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005498</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>39.10325347859165</v>
+        <v>39.10325347859117</v>
       </c>
       <c r="K5" t="n">
-        <v>109.8566690229305</v>
+        <v>109.8566690229299</v>
       </c>
       <c r="L5" t="n">
-        <v>173.5614190413283</v>
+        <v>173.5614190413275</v>
       </c>
       <c r="M5" t="n">
-        <v>225.1098511403233</v>
+        <v>225.1098511403223</v>
       </c>
       <c r="N5" t="n">
-        <v>233.4127763807489</v>
+        <v>233.412776380748</v>
       </c>
       <c r="O5" t="n">
-        <v>206.9351050732456</v>
+        <v>206.9351050732447</v>
       </c>
       <c r="P5" t="n">
-        <v>141.7648287500277</v>
+        <v>141.7648287500269</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.80014245347817</v>
+        <v>57.8001424534776</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.281703668560226</v>
+        <v>4.281703668559942</v>
       </c>
       <c r="K6" t="n">
-        <v>88.4110501315661</v>
+        <v>225.5456483268497</v>
       </c>
       <c r="L6" t="n">
-        <v>299.9154604304254</v>
+        <v>162.7808622351388</v>
       </c>
       <c r="M6" t="n">
-        <v>209.5099804443554</v>
+        <v>209.5099804443547</v>
       </c>
       <c r="N6" t="n">
-        <v>229.6092729938971</v>
+        <v>229.6092729938963</v>
       </c>
       <c r="O6" t="n">
-        <v>187.6033894024083</v>
+        <v>187.6033894024075</v>
       </c>
       <c r="P6" t="n">
-        <v>131.0399096617159</v>
+        <v>131.0399096617153</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.17327860774591</v>
+        <v>37.17327860774554</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>112.909046408506</v>
+        <v>112.9090464085057</v>
       </c>
       <c r="L7" t="n">
-        <v>200.5720138585317</v>
+        <v>200.5720138585314</v>
       </c>
       <c r="M7" t="n">
-        <v>221.9691300741697</v>
+        <v>221.9691300741693</v>
       </c>
       <c r="N7" t="n">
-        <v>222.1807118236315</v>
+        <v>222.1807118236311</v>
       </c>
       <c r="O7" t="n">
-        <v>189.0417720821366</v>
+        <v>189.0417720821362</v>
       </c>
       <c r="P7" t="n">
-        <v>137.9996291139004</v>
+        <v>137.9996291139001</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.2659313709156</v>
+        <v>11.2659313709154</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113678</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754087</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961653</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754087</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961654</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
